--- a/results/sku_level_hmm_rmse.xlsx
+++ b/results/sku_level_hmm_rmse.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>rmse_du</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Encoded_SKU_ID</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -408,114 +405,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="B2">
-        <v>3.71291183381915</v>
+        <v>3.070597894314954</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D2">
-        <v>1.856455916909575</v>
+        <v>1.954016841836789</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="B3">
-        <v>3.223795456113359</v>
+        <v>2.382975331087468</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D3">
-        <v>1.07459848537112</v>
+        <v>0.8340413658806138</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>3.070597894314954</v>
+        <v>2.070196678027063</v>
       </c>
       <c r="C4">
-        <v>1.571428571428571</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D4">
-        <v>1.954016841836789</v>
+        <v>0.90571104663684</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="B5">
-        <v>3.023715784073818</v>
+        <v>2.026608708444444</v>
       </c>
       <c r="C5">
-        <v>2.857142857142857</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D5">
-        <v>1.058300524425836</v>
+        <v>1.091250843008547</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="B6">
-        <v>2.685942239566167</v>
+        <v>2.017778127403648</v>
       </c>
       <c r="C6">
-        <v>2.285714285714286</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1.175099729810198</v>
+        <v>0.6725927091345493</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="B7">
-        <v>2.679285619073008</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1.142857142857143</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D7">
-        <v>2.344374916688882</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="B8">
-        <v>2.306822180279306</v>
+        <v>1.963961012123931</v>
       </c>
       <c r="C8">
-        <v>1.857142857142857</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D8">
-        <v>1.242135020150396</v>
+        <v>0.85923294280422</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>409</v>
       </c>
       <c r="B9">
-        <v>2.070196678027063</v>
+        <v>1.851640199545103</v>
       </c>
       <c r="C9">
-        <v>2.285714285714286</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D9">
-        <v>0.90571104663684</v>
+        <v>1.178316490619611</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,55 +520,55 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>2.070196678027063</v>
+        <v>1.822478688881868</v>
       </c>
       <c r="C10">
         <v>2.142857142857143</v>
       </c>
       <c r="D10">
-        <v>0.9660917830792959</v>
+        <v>0.8504900548115384</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="B11">
-        <v>2.052872551885702</v>
+        <v>1.752549163769328</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D11">
-        <v>2.052872551885702</v>
+        <v>1.363093794042811</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>409</v>
+        <v>146</v>
       </c>
       <c r="B12">
-        <v>2.044155431607741</v>
+        <v>1.592392629257711</v>
       </c>
       <c r="C12">
-        <v>1.571428571428571</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D12">
-        <v>1.300826183750381</v>
+        <v>0.9288957004003314</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>2.044155431607741</v>
+        <v>1.475998451412273</v>
       </c>
       <c r="C13">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>4.769696007084728</v>
+        <v>1.475998451412273</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -579,251 +576,251 @@
         <v>498</v>
       </c>
       <c r="B14">
-        <v>2.026608708444444</v>
+        <v>1.4638501094228</v>
       </c>
       <c r="C14">
         <v>2.142857142857143</v>
       </c>
       <c r="D14">
-        <v>0.9457507306074072</v>
+        <v>0.6831300510639733</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>2.008908730060748</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="C15">
-        <v>1.714285714285714</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D15">
-        <v>1.17186342586877</v>
+        <v>0.9899494936611666</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>519</v>
+        <v>298</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1.375811448875587</v>
       </c>
       <c r="C16">
-        <v>0.4285714285714285</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D16">
-        <v>4.666666666666667</v>
+        <v>1.203835017766139</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>1.927248223318863</v>
+        <v>1.375811448875587</v>
       </c>
       <c r="C17">
-        <v>0.2857142857142857</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D17">
-        <v>6.745368781616021</v>
+        <v>0.9630680142129111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>188</v>
+        <v>437</v>
       </c>
       <c r="B18">
-        <v>1.908627030841055</v>
+        <v>1.336306209562122</v>
       </c>
       <c r="C18">
-        <v>1.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1.484487690654154</v>
+        <v>1.336306209562122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="B19">
-        <v>1.870828693386971</v>
+        <v>1.309307341415954</v>
       </c>
       <c r="C19">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>6.547900426854397</v>
+        <v>1.309307341415954</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="B20">
-        <v>1.832250762625809</v>
+        <v>1.309307341415954</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1.832250762625809</v>
+        <v>0.6546536707079771</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>146</v>
+        <v>528</v>
       </c>
       <c r="B21">
-        <v>1.822478688881868</v>
+        <v>1.309307341415954</v>
       </c>
       <c r="C21">
-        <v>1.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1.063112568514423</v>
+        <v>1.309307341415954</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>378</v>
+        <v>292</v>
       </c>
       <c r="B22">
-        <v>1.782854853478383</v>
+        <v>1.295596939086932</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.8914274267391917</v>
+        <v>1.295596939086932</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>171</v>
+        <v>521</v>
       </c>
       <c r="B23">
-        <v>1.752549163769328</v>
+        <v>1.253566341056017</v>
       </c>
       <c r="C23">
-        <v>1.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D23">
-        <v>1.363093794042811</v>
+        <v>0.8774964387392121</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="B24">
-        <v>1.721710113313421</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="C24">
         <v>0.5714285714285714</v>
       </c>
       <c r="D24">
-        <v>3.012992698298488</v>
+        <v>2.143303524935281</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>62</v>
+        <v>522</v>
       </c>
       <c r="B25">
-        <v>1.558387444947959</v>
+        <v>1.210076739006958</v>
       </c>
       <c r="C25">
-        <v>1.428571428571429</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1.090871211463571</v>
+        <v>1.210076739006958</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>528</v>
+        <v>378</v>
       </c>
       <c r="B26">
-        <v>1.511857892036909</v>
+        <v>1.210076739006958</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1.511857892036909</v>
+        <v>0.6050383695034791</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>513</v>
+        <v>188</v>
       </c>
       <c r="B27">
-        <v>1.511857892036909</v>
+        <v>1.195228609334394</v>
       </c>
       <c r="C27">
-        <v>0.7142857142857143</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D27">
-        <v>2.116601048851672</v>
+        <v>0.9296222517045283</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>437</v>
+        <v>544</v>
       </c>
       <c r="B28">
-        <v>1.475998451412273</v>
+        <v>1.195228609334394</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1.475998451412273</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="B29">
-        <v>1.4638501094228</v>
+        <v>1.180193688704165</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D29">
-        <v>1.4638501094228</v>
+        <v>1.652271164185831</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>1.451600102350113</v>
+        <v>1.164964745021435</v>
       </c>
       <c r="C30">
         <v>1.142857142857143</v>
       </c>
       <c r="D30">
-        <v>1.270150089556349</v>
+        <v>1.019344151893756</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>467</v>
+        <v>306</v>
       </c>
       <c r="B31">
-        <v>1.439245834257849</v>
+        <v>1.133893419027682</v>
       </c>
       <c r="C31">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>5.037360419902472</v>
+        <v>1.133893419027682</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -831,433 +828,433 @@
         <v>352</v>
       </c>
       <c r="B32">
-        <v>1.439245834257849</v>
+        <v>1.133893419027682</v>
       </c>
       <c r="C32">
         <v>1.142857142857143</v>
       </c>
       <c r="D32">
-        <v>1.259340104975618</v>
+        <v>0.9921567416492215</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="B33">
-        <v>1.375811448875587</v>
+        <v>1.118033988749895</v>
       </c>
       <c r="C33">
-        <v>1.571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D33">
-        <v>0.8755163765571919</v>
+        <v>1.956559480312316</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="B34">
-        <v>1.375811448875587</v>
+        <v>1.101946330038679</v>
       </c>
       <c r="C34">
-        <v>1.428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D34">
-        <v>0.9630680142129111</v>
+        <v>1.542724862054151</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>1.375811448875587</v>
+        <v>1.101946330038679</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D35">
-        <v>1.375811448875587</v>
+        <v>1.285604051711793</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="B36">
-        <v>1.375811448875587</v>
+        <v>1.085620296683619</v>
       </c>
       <c r="C36">
-        <v>1.857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D36">
-        <v>0.7408215493945469</v>
+        <v>1.266557012797555</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B37">
-        <v>1.362770287738494</v>
+        <v>1.069044967649698</v>
       </c>
       <c r="C37">
-        <v>1.428571428571429</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.9539392014169455</v>
+        <v>1.069044967649698</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="B38">
-        <v>1.362770287738494</v>
+        <v>1.052208561618303</v>
       </c>
       <c r="C38">
-        <v>1.285714285714286</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D38">
-        <v>1.059932446018828</v>
+        <v>2.455153310442706</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="B39">
-        <v>1.349603116263656</v>
+        <v>1.052208561618303</v>
       </c>
       <c r="C39">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D39">
-        <v>1.574536968974265</v>
+        <v>3.682729965664059</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>361</v>
+        <v>512</v>
       </c>
       <c r="B40">
-        <v>1.349603116263656</v>
+        <v>1.052208561618303</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D40">
-        <v>1.349603116263656</v>
+        <v>1.473091986265624</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>522</v>
+        <v>323</v>
       </c>
       <c r="B41">
-        <v>1.349603116263656</v>
+        <v>1.035098339013531</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D41">
-        <v>1.349603116263656</v>
+        <v>0.90571104663684</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="B42">
-        <v>1.336306209562122</v>
+        <v>1.035098339013531</v>
       </c>
       <c r="C42">
-        <v>1.428571428571429</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D42">
-        <v>0.9354143466934853</v>
+        <v>0.8050764858994132</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="B43">
-        <v>1.322875655532295</v>
+        <v>1.017700489198215</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D43">
-        <v>1.322875655532295</v>
+        <v>1.424780684877501</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="B44">
-        <v>1.267731382092775</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D44">
-        <v>1.109264959331178</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>318</v>
+        <v>439</v>
       </c>
       <c r="B45">
-        <v>1.267731382092775</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D45">
-        <v>1.774823934929885</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>65</v>
+        <v>397</v>
       </c>
       <c r="B46">
-        <v>1.253566341056017</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D46">
-        <v>2.193741096848031</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="B47">
-        <v>1.253566341056017</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1.142857142857143</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D47">
-        <v>1.096870548424015</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>426</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>1.224744871391589</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.7142857142857143</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D48">
-        <v>1.714642819948224</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>402</v>
+        <v>65</v>
       </c>
       <c r="B49">
-        <v>1.224744871391589</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0.5714285714285714</v>
       </c>
       <c r="D49">
-        <v>2.143303524935281</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="B50">
-        <v>1.224744871391589</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="C50">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D50">
-        <v>1.714642819948224</v>
+        <v>2.248456260538674</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>544</v>
+        <v>203</v>
       </c>
       <c r="B51">
-        <v>1.195228609334394</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D51">
-        <v>1.195228609334394</v>
+        <v>1.124228130269337</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="B52">
-        <v>1.180193688704165</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="C52">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D52">
-        <v>2.753785273643051</v>
+        <v>3.37268439080801</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>575</v>
+        <v>419</v>
       </c>
       <c r="B53">
-        <v>1.164964745021435</v>
+        <v>0.944911182523068</v>
       </c>
       <c r="C53">
         <v>0.7142857142857143</v>
       </c>
       <c r="D53">
-        <v>1.630950643030009</v>
+        <v>1.322875655532295</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="B54">
-        <v>1.14953406710222</v>
+        <v>0.944911182523068</v>
       </c>
       <c r="C54">
-        <v>0.4285714285714285</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D54">
-        <v>2.682246156571847</v>
+        <v>0.734930919740164</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>543</v>
+        <v>92</v>
       </c>
       <c r="B55">
-        <v>1.133893419027682</v>
+        <v>0.944911182523068</v>
       </c>
       <c r="C55">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1.984313483298443</v>
+        <v>0.944911182523068</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>395</v>
+        <v>554</v>
       </c>
       <c r="B56">
-        <v>1.133893419027682</v>
+        <v>0.9258200997725514</v>
       </c>
       <c r="C56">
         <v>0.7142857142857143</v>
       </c>
       <c r="D56">
-        <v>1.587450786638754</v>
+        <v>1.296148139681572</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="B57">
-        <v>1.133893419027682</v>
+        <v>0.9258200997725514</v>
       </c>
       <c r="C57">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D57">
-        <v>3.968626966596886</v>
+        <v>1.296148139681572</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>203</v>
+        <v>551</v>
       </c>
       <c r="B58">
-        <v>1.101946330038679</v>
+        <v>0.9063269671749657</v>
       </c>
       <c r="C58">
-        <v>0.8571428571428571</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D58">
-        <v>1.285604051711793</v>
+        <v>0.5767535245658874</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>12</v>
+        <v>410</v>
       </c>
       <c r="B59">
-        <v>1.101946330038679</v>
+        <v>0.8864052604279183</v>
       </c>
       <c r="C59">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D59">
-        <v>1.285604051711793</v>
+        <v>1.551209205748857</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="B60">
-        <v>1.101946330038679</v>
+        <v>0.8864052604279183</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1.101946330038679</v>
+        <v>0.8864052604279183</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>280</v>
+        <v>529</v>
       </c>
       <c r="B61">
-        <v>1.101946330038679</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="C61">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D61">
-        <v>1.542724862054151</v>
+        <v>1.010362971081845</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B62">
-        <v>1.085620296683619</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="C62">
-        <v>0.4285714285714285</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D62">
-        <v>2.533114025595111</v>
+        <v>0.7577722283113838</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1265,27 +1262,27 @@
         <v>362</v>
       </c>
       <c r="B63">
-        <v>1.085620296683619</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="C63">
         <v>0.4285714285714285</v>
       </c>
       <c r="D63">
-        <v>2.533114025595111</v>
+        <v>2.02072594216369</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="B64">
-        <v>1.069044967649698</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="C64">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D64">
-        <v>1.870828693386971</v>
+        <v>1.010362971081845</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1293,1357 +1290,1354 @@
         <v>114</v>
       </c>
       <c r="B65">
-        <v>1.069044967649698</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="C65">
         <v>0.7142857142857143</v>
       </c>
       <c r="D65">
-        <v>1.496662954709577</v>
+        <v>1.212435565298214</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>439</v>
+        <v>281</v>
       </c>
       <c r="B66">
-        <v>1.069044967649698</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="C66">
-        <v>0.8571428571428571</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D66">
-        <v>1.247219128924647</v>
+        <v>0.5051814855409226</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="B67">
-        <v>1.069044967649698</v>
+        <v>0.8451542547285166</v>
       </c>
       <c r="C67">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D67">
-        <v>1.247219128924647</v>
+        <v>2.958039891549808</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>551</v>
+        <v>473</v>
       </c>
       <c r="B68">
-        <v>1.052208561618303</v>
+        <v>0.8451542547285166</v>
       </c>
       <c r="C68">
-        <v>1.571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D68">
-        <v>0.6695872664843744</v>
+        <v>2.958039891549808</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>369</v>
+        <v>574</v>
       </c>
       <c r="B69">
-        <v>1.052208561618303</v>
+        <v>0.8451542547285166</v>
       </c>
       <c r="C69">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D69">
-        <v>3.682729965664059</v>
+        <v>1.972026594366539</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="B70">
-        <v>1.052208561618303</v>
+        <v>0.8451542547285166</v>
       </c>
       <c r="C70">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D70">
-        <v>1.473091986265624</v>
+        <v>1.479019945774904</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="B71">
-        <v>1.035098339013531</v>
+        <v>0.8451542547285166</v>
       </c>
       <c r="C71">
         <v>0.8571428571428571</v>
       </c>
       <c r="D71">
-        <v>1.20761472884912</v>
+        <v>0.9860132971832694</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>264</v>
+        <v>550</v>
       </c>
       <c r="B72">
-        <v>1.035098339013531</v>
+        <v>0.823754471047914</v>
       </c>
       <c r="C72">
         <v>0.4285714285714285</v>
       </c>
       <c r="D72">
-        <v>2.41522945769824</v>
+        <v>1.922093765778466</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B73">
-        <v>1.017700489198215</v>
+        <v>0.8017837257372732</v>
       </c>
       <c r="C73">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D73">
-        <v>1.424780684877501</v>
+        <v>0.9354143466934854</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="B74">
-        <v>1.017700489198215</v>
+        <v>0.8017837257372732</v>
       </c>
       <c r="C74">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2.374634474795835</v>
+        <v>0.8017837257372732</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>281</v>
+        <v>452</v>
       </c>
       <c r="B75">
+        <v>0.7791937224739796</v>
+      </c>
+      <c r="C75">
         <v>1</v>
       </c>
-      <c r="C75">
-        <v>1.714285714285714</v>
-      </c>
       <c r="D75">
-        <v>0.5833333333333334</v>
+        <v>0.7791937224739796</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="B76">
+        <v>0.7791937224739796</v>
+      </c>
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="C76">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="D76">
-        <v>1.75</v>
+        <v>0.7791937224739796</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>529</v>
+        <v>209</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.7791937224739796</v>
       </c>
       <c r="C77">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D77">
-        <v>1.166666666666667</v>
+        <v>1.363589014329464</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.7791937224739796</v>
       </c>
       <c r="C78">
-        <v>0.7142857142857143</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D78">
-        <v>1.4</v>
+        <v>0.6817945071647321</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>100</v>
+        <v>513</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="C79">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D79">
-        <v>2.333333333333333</v>
+        <v>1.058300524425836</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B80">
-        <v>0.9636241116594315</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="C80">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D80">
-        <v>6.745368781616021</v>
+        <v>1.763834207376394</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>554</v>
+        <v>316</v>
       </c>
       <c r="B81">
-        <v>0.9636241116594315</v>
+        <v>0.7319250547113999</v>
       </c>
       <c r="C81">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D81">
-        <v>1.349073756323204</v>
+        <v>1.707825127659933</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="B82">
-        <v>0.944911182523068</v>
+        <v>0.7319250547113999</v>
       </c>
       <c r="C82">
-        <v>1.285714285714286</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D82">
-        <v>0.734930919740164</v>
+        <v>1.707825127659933</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>419</v>
+        <v>225</v>
       </c>
       <c r="B83">
-        <v>0.944911182523068</v>
+        <v>0.7319250547113999</v>
       </c>
       <c r="C83">
         <v>0.7142857142857143</v>
       </c>
       <c r="D83">
-        <v>1.322875655532295</v>
+        <v>1.02469507659596</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>410</v>
+        <v>7</v>
       </c>
       <c r="B84">
-        <v>0.8864052604279183</v>
+        <v>0.7319250547113999</v>
       </c>
       <c r="C84">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D84">
-        <v>1.551209205748857</v>
+        <v>1.707825127659933</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>495</v>
+        <v>272</v>
       </c>
       <c r="B85">
-        <v>0.8864052604279183</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="C85">
         <v>0.5714285714285714</v>
       </c>
       <c r="D85">
-        <v>1.551209205748857</v>
+        <v>1.237436867076458</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="B86">
-        <v>0.8864052604279183</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D86">
-        <v>0.8864052604279183</v>
+        <v>0.8249579113843055</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="B87">
-        <v>0.8864052604279183</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="C87">
         <v>0.5714285714285714</v>
       </c>
       <c r="D87">
-        <v>1.551209205748857</v>
+        <v>1.237436867076458</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="B88">
-        <v>0.8864052604279183</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C88">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D88">
-        <v>2.068278940998476</v>
+        <v>0.9539392014169455</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="B89">
-        <v>0.8660254037844386</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C89">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D89">
-        <v>1.212435565298214</v>
+        <v>1.589898669028243</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>386</v>
+        <v>120</v>
       </c>
       <c r="B90">
-        <v>0.8660254037844386</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C90">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D90">
-        <v>1.212435565298214</v>
+        <v>4.769696007084728</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="B91">
-        <v>0.8660254037844386</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C91">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D91">
-        <v>3.031088913245535</v>
+        <v>0.9539392014169455</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="B92">
-        <v>0.8660254037844386</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C92">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>6.06217782649107</v>
+        <v>0.6813851438692469</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="B93">
-        <v>0.8660254037844386</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C93">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D93">
-        <v>6.06217782649107</v>
+        <v>2.384848003542364</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="B94">
-        <v>0.8660254037844386</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C94">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D94">
-        <v>1.515544456622768</v>
+        <v>1.589898669028243</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B95">
-        <v>0.8660254037844386</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C95">
-        <v>1.142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D95">
-        <v>0.7577722283113838</v>
+        <v>1.192424001771182</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>225</v>
+        <v>340</v>
       </c>
       <c r="B96">
-        <v>0.8451542547285166</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C96">
         <v>0.7142857142857143</v>
       </c>
       <c r="D96">
-        <v>1.183215956619923</v>
+        <v>0.9539392014169455</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="B97">
-        <v>0.8451542547285166</v>
+        <v>0.6813851438692469</v>
       </c>
       <c r="C97">
-        <v>0.7142857142857143</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D97">
-        <v>1.183215956619923</v>
+        <v>0.5299662230094142</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B98">
-        <v>0.8451542547285166</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C98">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D98">
-        <v>2.958039891549808</v>
+        <v>1.527525231651947</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>574</v>
+        <v>284</v>
       </c>
       <c r="B99">
-        <v>0.8451542547285166</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C99">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D99">
-        <v>1.972026594366539</v>
+        <v>2.29128784747792</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="B100">
-        <v>0.8451542547285166</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C100">
-        <v>0.2857142857142857</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D100">
-        <v>2.958039891549808</v>
+        <v>0.3818813079129866</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="B101">
-        <v>0.823754471047914</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D101">
-        <v>0.823754471047914</v>
+        <v>1.14564392373896</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>550</v>
+        <v>314</v>
       </c>
       <c r="B102">
-        <v>0.823754471047914</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C102">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D102">
-        <v>1.922093765778466</v>
+        <v>2.29128784747792</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="B103">
-        <v>0.823754471047914</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D103">
-        <v>0.823754471047914</v>
+        <v>1.527525231651947</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>322</v>
+        <v>536</v>
       </c>
       <c r="B104">
-        <v>0.8017837257372732</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D104">
-        <v>0.8017837257372732</v>
+        <v>0.9165151389911679</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B105">
-        <v>0.8017837257372732</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C105">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D105">
-        <v>0.9354143466934854</v>
+        <v>1.14564392373896</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="B106">
-        <v>0.7791937224739796</v>
+        <v>0.6546536707079771</v>
       </c>
       <c r="C106">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D106">
-        <v>1.363589014329464</v>
+        <v>0.9165151389911679</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="B107">
-        <v>0.7791937224739796</v>
+        <v>0.5976143046671968</v>
       </c>
       <c r="C107">
         <v>0.4285714285714285</v>
       </c>
       <c r="D107">
-        <v>1.818118685772619</v>
+        <v>1.394433377556793</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>452</v>
+        <v>539</v>
       </c>
       <c r="B108">
-        <v>0.7791937224739796</v>
+        <v>0.5976143046671968</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D108">
-        <v>0.7791937224739796</v>
+        <v>2.091650066335189</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="B109">
-        <v>0.7559289460184544</v>
+        <v>0.5976143046671968</v>
       </c>
       <c r="C109">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D109">
-        <v>0.8819171036881969</v>
+        <v>1.045825033167594</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="B110">
-        <v>0.7559289460184544</v>
+        <v>0.5976143046671968</v>
       </c>
       <c r="C110">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D110">
-        <v>2.645751311064591</v>
+        <v>1.045825033167594</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="B111">
-        <v>0.7559289460184544</v>
+        <v>0.5669467095138409</v>
       </c>
       <c r="C111">
-        <v>0.4285714285714285</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D111">
-        <v>1.763834207376394</v>
+        <v>0.4960783708246108</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="B112">
-        <v>0.7319250547113999</v>
+        <v>0.5669467095138409</v>
       </c>
       <c r="C112">
-        <v>0.4285714285714285</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D112">
-        <v>1.707825127659933</v>
+        <v>0.4409585518440984</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>368</v>
+        <v>21</v>
       </c>
       <c r="B113">
-        <v>0.7319250547113999</v>
+        <v>0.5669467095138409</v>
       </c>
       <c r="C113">
-        <v>0.1428571428571428</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D113">
-        <v>5.1234753829798</v>
+        <v>0.360784269690626</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>205</v>
+        <v>386</v>
       </c>
       <c r="B114">
-        <v>0.7071067811865476</v>
+        <v>0.5669467095138409</v>
       </c>
       <c r="C114">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D114">
-        <v>1.237436867076458</v>
+        <v>0.7937253933193772</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="B115">
-        <v>0.7071067811865476</v>
+        <v>0.5669467095138409</v>
       </c>
       <c r="C115">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D115">
-        <v>1.649915822768611</v>
+        <v>0.7937253933193772</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="B116">
-        <v>0.6813851438692469</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C116">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D116">
-        <v>0.9539392014169455</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="B117">
-        <v>0.6813851438692469</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C117">
-        <v>1.285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D117">
-        <v>0.5299662230094142</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>340</v>
+        <v>524</v>
       </c>
       <c r="B118">
-        <v>0.6813851438692469</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C118">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D118">
-        <v>0.9539392014169455</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="B119">
-        <v>0.6813851438692469</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C119">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D119">
-        <v>0.9539392014169455</v>
+        <v>1.247219128924647</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="B120">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C120">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D120">
-        <v>1.527525231651947</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>536</v>
+        <v>363</v>
       </c>
       <c r="B121">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C121">
         <v>0.7142857142857143</v>
       </c>
       <c r="D121">
-        <v>0.9165151389911679</v>
+        <v>0.7483314773547883</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>150</v>
+        <v>573</v>
       </c>
       <c r="B122">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C122">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D122">
-        <v>1.14564392373896</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="B123">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C123">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D123">
-        <v>2.29128784747792</v>
+        <v>1.247219128924647</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="B124">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C124">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D124">
-        <v>1.527525231651947</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>191</v>
+        <v>440</v>
       </c>
       <c r="B125">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C125">
-        <v>1.714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D125">
-        <v>0.3818813079129866</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="B126">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C126">
-        <v>-0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D126">
-        <v>-4.58257569495584</v>
+        <v>1.247219128924647</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>210</v>
+        <v>542</v>
       </c>
       <c r="B127">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C127">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D127">
-        <v>1.527525231651947</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="B128">
-        <v>0.6546536707079771</v>
+        <v>0.5345224838248488</v>
       </c>
       <c r="C128">
         <v>0.2857142857142857</v>
       </c>
       <c r="D128">
-        <v>2.29128784747792</v>
+        <v>1.870828693386971</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>64</v>
+        <v>553</v>
       </c>
       <c r="B129">
-        <v>0.6546536707079771</v>
+        <v>0.5</v>
       </c>
       <c r="C129">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D129">
-        <v>1.14564392373896</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="B130">
-        <v>0.6267831705280087</v>
+        <v>0.5</v>
       </c>
       <c r="C130">
-        <v>1.142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D130">
-        <v>0.5484352742120077</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B131">
-        <v>0.5976143046671968</v>
+        <v>0.5</v>
       </c>
       <c r="C131">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D131">
-        <v>2.091650066335189</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>539</v>
+        <v>189</v>
       </c>
       <c r="B132">
-        <v>0.5976143046671968</v>
+        <v>0.5</v>
       </c>
       <c r="C132">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>2.091650066335189</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="B133">
-        <v>0.5669467095138409</v>
+        <v>0.4629100498862757</v>
       </c>
       <c r="C133">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D133">
-        <v>1.984313483298443</v>
+        <v>3.24037034920393</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="B134">
-        <v>0.5669467095138409</v>
+        <v>0.4629100498862757</v>
       </c>
       <c r="C134">
-        <v>1.285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D134">
-        <v>0.4409585518440984</v>
+        <v>0.648074069840786</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="B135">
-        <v>0.5669467095138409</v>
+        <v>0.4629100498862757</v>
       </c>
       <c r="C135">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D135">
-        <v>1.984313483298443</v>
+        <v>1.080123449734643</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>223</v>
+        <v>444</v>
       </c>
       <c r="B136">
-        <v>0.5345224838248488</v>
+        <v>0.4629100498862757</v>
       </c>
       <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4</v>
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D136">
+        <v>1.080123449734643</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="B137">
-        <v>0.5345224838248488</v>
+        <v>0.4629100498862757</v>
       </c>
       <c r="C137">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D137">
-        <v>1.870828693386971</v>
+        <v>0.8100925873009825</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>423</v>
+        <v>167</v>
       </c>
       <c r="B138">
-        <v>0.5345224838248488</v>
+        <v>0.4629100498862757</v>
       </c>
       <c r="C138">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D138">
-        <v>1.870828693386971</v>
+        <v>0.648074069840786</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B139">
-        <v>0.5345224838248488</v>
+        <v>0.4225771273642583</v>
       </c>
       <c r="C139">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D139">
-        <v>1.870828693386971</v>
+        <v>0.9860132971832694</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="B140">
-        <v>0.5345224838248488</v>
+        <v>0.4225771273642583</v>
       </c>
       <c r="C140">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D140">
-        <v>1.870828693386971</v>
+        <v>2.958039891549808</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>471</v>
+        <v>175</v>
       </c>
       <c r="B141">
-        <v>0.5345224838248488</v>
+        <v>0.4225771273642583</v>
       </c>
       <c r="C141">
         <v>0.2857142857142857</v>
       </c>
       <c r="D141">
-        <v>1.870828693386971</v>
+        <v>1.479019945774904</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B142">
-        <v>0.5345224838248488</v>
+        <v>0.4225771273642583</v>
       </c>
       <c r="C142">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D142">
-        <v>1.870828693386971</v>
+        <v>0.9860132971832694</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="B143">
-        <v>0.5345224838248488</v>
+        <v>0.4225771273642583</v>
       </c>
       <c r="C143">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D143">
-        <v>1.247219128924647</v>
+        <v>1.479019945774904</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>542</v>
+        <v>63</v>
       </c>
       <c r="B144">
-        <v>0.5345224838248488</v>
+        <v>0.4225771273642583</v>
       </c>
       <c r="C144">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D144">
-        <v>1.870828693386971</v>
+        <v>0.9860132971832694</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>245</v>
+        <v>57</v>
       </c>
       <c r="B145">
-        <v>0.5345224838248488</v>
+        <v>0.4225771273642583</v>
       </c>
       <c r="C145">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D145">
-        <v>0.7483314773547883</v>
+        <v>1.479019945774904</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>407</v>
+        <v>523</v>
       </c>
       <c r="B146">
-        <v>0.5345224838248488</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C146">
         <v>0.2857142857142857</v>
       </c>
       <c r="D146">
-        <v>1.870828693386971</v>
+        <v>1.322875655532295</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>553</v>
+        <v>289</v>
       </c>
       <c r="B147">
-        <v>0.5</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C147">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D147">
-        <v>1.166666666666667</v>
+        <v>2.645751311064591</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="B148">
-        <v>0.5</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C148">
-        <v>0.1428571428571428</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="D148">
-        <v>3.5</v>
+        <v>-2.645751311064591</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>0.5</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C149">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D149">
-        <v>1.166666666666667</v>
+        <v>2.645751311064591</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>533</v>
+        <v>177</v>
       </c>
       <c r="B150">
-        <v>0.4629100498862757</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C150">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D150">
-        <v>3.24037034920393</v>
+        <v>0.8819171036881969</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="B151">
-        <v>0.4629100498862757</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C151">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D151">
-        <v>1.080123449734643</v>
+        <v>2.645751311064591</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="B152">
-        <v>0.4629100498862757</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C152">
         <v>0.4285714285714285</v>
       </c>
       <c r="D152">
-        <v>1.080123449734643</v>
+        <v>0.8819171036881969</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>57</v>
+        <v>471</v>
       </c>
       <c r="B153">
-        <v>0.4225771273642583</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C153">
         <v>0.2857142857142857</v>
       </c>
       <c r="D153">
-        <v>1.479019945774904</v>
+        <v>1.322875655532295</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="B154">
-        <v>0.4225771273642583</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C154">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D154">
-        <v>0.9860132971832694</v>
+        <v>2.645751311064591</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B155">
-        <v>0.4225771273642583</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C155">
         <v>0.2857142857142857</v>
       </c>
       <c r="D155">
-        <v>1.479019945774904</v>
+        <v>1.322875655532295</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B156">
-        <v>0.4225771273642583</v>
+        <v>0.3779644730092272</v>
       </c>
       <c r="C156">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D156">
-        <v>0.9860132971832694</v>
+        <v>2.645751311064591</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B157">
-        <v>0.3779644730092272</v>
+        <v>0.3273268353539885</v>
       </c>
       <c r="C157">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D157">
-        <v>2.645751311064591</v>
+        <v>1.14564392373896</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="B158">
-        <v>0.3779644730092272</v>
+        <v>0.2672612419124244</v>
       </c>
       <c r="C158">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D158">
-        <v>2.645751311064591</v>
+        <v>0.9354143466934854</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B159">
-        <v>0.3779644730092272</v>
+        <v>0.1889822365046136</v>
       </c>
       <c r="C159">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D159">
-        <v>2.645751311064591</v>
+        <v>0.6614378277661477</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B160">
-        <v>0.3779644730092272</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="D160">
-        <v>0.8819171036881969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>132</v>
+        <v>368</v>
       </c>
       <c r="B161">
-        <v>0.3273268353539885</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D161">
-        <v>1.14564392373896</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
